--- a/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.17</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5569</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000549</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安大国新经济股票</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>32.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001028</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安物联网主题股票</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>008518</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>弘毅远方经济新动力混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>001028</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>华安物联网主题股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005955</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达鑫转添利混合A</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005956</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达鑫转添利混合C</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>92.94</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.91</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>000549</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>华安大国新经济股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>005955</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>易方达鑫转添利混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008518</t>
+          <t>005956</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>弘毅远方经济新动力混合</t>
+          <t>易方达鑫转添利混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000549</t>
+          <t>001071</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安大国新经济股票</t>
+          <t>华安媒体互联网混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>44.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.59</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001028</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安物联网主题股票</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001071</t>
+          <t>001028</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安媒体互联网混合</t>
+          <t>华安物联网主题股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>000549</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>华安大国新经济股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.04</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
@@ -1188,12 +1188,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,471 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5569</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006879</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安智能生活混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3629</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007460</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安成长创新混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3545</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008518</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>弘毅远方经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1426</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001028</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安物联网主题股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1401</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1308</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1308</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1002</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000549</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安大国新经济股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005955</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005956</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达鑫转添利混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.82</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.97</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1172,64 +766,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5569</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.97</v>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005956</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达鑫转添利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.76</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.97</v>
       </c>
     </row>
@@ -515,6 +532,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -760,7 +909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300113-顺网科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.76</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.97</v>
       </c>
     </row>
@@ -598,22 +615,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.28</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1132</t>
+          <t>0.1531</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -636,22 +653,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.28</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -664,6 +681,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,7 +1058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
